--- a/biology/Botanique/Copiapoa_cinerea/Copiapoa_cinerea.xlsx
+++ b/biology/Botanique/Copiapoa_cinerea/Copiapoa_cinerea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copiapoa cinerea est une espèce de plantes à fleurs du genre Copiapoa et de la famille des Cactaceae. Elle est originaire d'Amérique du Sud, plus précisément du Chili.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cactus de forme sphérique ou colonnaire, mesurant jusqu'à 1m de haut et 20 cm de diamètre[réf. nécessaire]. L'espèce présente un grand nombre de variétés et de formes qui rendent les identifications difficiles. Sa croissance est très lente. Seuls les sujets âgés buissonnent.
 Son épiderme est de couleur blanche à cendrée.
@@ -546,7 +560,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est originaire de la région subtropicale d'Antofagasta au nord du Chili. C'est une région côtière extrêmement aride. Cependant, un peu d'humidité est fourni par les brouillards côtiers dus aux courants froids du Pacifique. Ces brouillards apparaissent entre 500 et 800 m d'altitude en début de matinée ou fin d'après-midi.
 </t>
@@ -577,7 +593,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante appréciée pour son aspect et le contraste de couleur entre l'épiderme et les épines.
 Mais sa croissance est lente et l'espèce est difficile à cultiver ; elle gagne à être greffée.
@@ -615,11 +633,48 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'adjectif cinerea fait référence à la couleur cendrée de l'épiderme.
-Synonymes
-Echinocactus cinereus</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adjectif cinerea fait référence à la couleur cendrée de l'épiderme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Copiapoa_cinerea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copiapoa_cinerea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Echinocactus cinereus</t>
         </is>
       </c>
     </row>
